--- a/files/230515_demo.xlsx
+++ b/files/230515_demo.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20200" uniqueCount="1591">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20198" uniqueCount="1591">
   <si>
     <t>Granvil</t>
   </si>
@@ -43671,6 +43671,9 @@
       <c r="AN532" t="s">
         <v>1539</v>
       </c>
+      <c r="AV532" t="s">
+        <v>1546</v>
+      </c>
       <c r="CP532" t="s">
         <v>1588</v>
       </c>
@@ -81670,13 +81673,13 @@
         <v>1171</v>
       </c>
       <c r="F1078">
-        <v>4900</v>
+        <v>5270</v>
       </c>
       <c r="G1078">
-        <v>80500</v>
+        <v>253600</v>
       </c>
       <c r="H1078">
-        <v>1.9</v>
+        <v>29.86</v>
       </c>
       <c r="I1078">
         <v>33.35</v>
@@ -81687,41 +81690,35 @@
       <c r="K1078" t="s">
         <v>1511</v>
       </c>
-      <c r="Q1078" t="s">
-        <v>1517</v>
-      </c>
       <c r="Z1078" t="s">
         <v>1526</v>
       </c>
-      <c r="AB1078" t="s">
-        <v>1528</v>
+      <c r="AA1078" t="s">
+        <v>1527</v>
       </c>
       <c r="AD1078" t="s">
         <v>1530</v>
       </c>
-      <c r="AE1078" t="s">
-        <v>1531</v>
-      </c>
-      <c r="AF1078" t="s">
-        <v>1532</v>
-      </c>
-      <c r="AK1078" t="s">
-        <v>1536</v>
-      </c>
       <c r="AL1078" t="s">
         <v>1537</v>
       </c>
-      <c r="AM1078" t="s">
-        <v>1538</v>
-      </c>
-      <c r="AN1078" t="s">
-        <v>1539</v>
-      </c>
-      <c r="AR1078" t="s">
-        <v>1542</v>
-      </c>
-      <c r="AS1078" t="s">
-        <v>1543</v>
+      <c r="AT1078" t="s">
+        <v>1544</v>
+      </c>
+      <c r="AZ1078" t="s">
+        <v>1549</v>
+      </c>
+      <c r="BD1078" t="s">
+        <v>1553</v>
+      </c>
+      <c r="CP1078" t="s">
+        <v>1588</v>
+      </c>
+      <c r="CQ1078" t="s">
+        <v>1589</v>
+      </c>
+      <c r="CR1078" t="s">
+        <v>1590</v>
       </c>
     </row>
     <row r="1079" spans="1:96">
@@ -81741,13 +81738,13 @@
         <v>1172</v>
       </c>
       <c r="F1079">
-        <v>1144</v>
+        <v>1203</v>
       </c>
       <c r="G1079">
-        <v>12700</v>
+        <v>56100</v>
       </c>
       <c r="H1079">
-        <v>3.54</v>
+        <v>41.55</v>
       </c>
       <c r="I1079">
         <v>-3.6</v>
@@ -81758,17 +81755,26 @@
       <c r="K1079" t="s">
         <v>1511</v>
       </c>
-      <c r="X1079" t="s">
-        <v>1524</v>
+      <c r="Q1079" t="s">
+        <v>1517</v>
+      </c>
+      <c r="Z1079" t="s">
+        <v>1526</v>
+      </c>
+      <c r="AB1079" t="s">
+        <v>1528</v>
       </c>
       <c r="AD1079" t="s">
         <v>1530</v>
       </c>
+      <c r="AE1079" t="s">
+        <v>1531</v>
+      </c>
       <c r="AF1079" t="s">
         <v>1532</v>
       </c>
-      <c r="AJ1079" t="s">
-        <v>1535</v>
+      <c r="AK1079" t="s">
+        <v>1536</v>
       </c>
       <c r="AL1079" t="s">
         <v>1537</v>
@@ -81815,7 +81821,7 @@
         <v>1078</v>
       </c>
       <c r="B1080">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C1080">
         <v>0</v>
@@ -81827,13 +81833,13 @@
         <v>1173</v>
       </c>
       <c r="F1080">
-        <v>3555</v>
+        <v>3455</v>
       </c>
       <c r="G1080">
-        <v>8600</v>
+        <v>14400</v>
       </c>
       <c r="H1080">
-        <v>2.08</v>
+        <v>12.1</v>
       </c>
       <c r="I1080">
         <v>-1.8</v>
@@ -81841,29 +81847,50 @@
       <c r="J1080">
         <v>-3.19</v>
       </c>
-      <c r="L1080" t="s">
-        <v>1512</v>
-      </c>
-      <c r="S1080" t="s">
-        <v>1519</v>
-      </c>
-      <c r="AF1080" t="s">
-        <v>1532</v>
+      <c r="K1080" t="s">
+        <v>1511</v>
+      </c>
+      <c r="X1080" t="s">
+        <v>1524</v>
       </c>
       <c r="AL1080" t="s">
         <v>1537</v>
       </c>
+      <c r="AM1080" t="s">
+        <v>1538</v>
+      </c>
+      <c r="AN1080" t="s">
+        <v>1539</v>
+      </c>
+      <c r="AS1080" t="s">
+        <v>1543</v>
+      </c>
       <c r="AT1080" t="s">
         <v>1544</v>
       </c>
+      <c r="AU1080" t="s">
+        <v>1545</v>
+      </c>
+      <c r="AV1080" t="s">
+        <v>1546</v>
+      </c>
+      <c r="BA1080" t="s">
+        <v>1550</v>
+      </c>
       <c r="BB1080" t="s">
         <v>1551</v>
       </c>
+      <c r="BD1080" t="s">
+        <v>1553</v>
+      </c>
       <c r="CP1080" t="s">
         <v>1588</v>
       </c>
       <c r="CQ1080" t="s">
         <v>1589</v>
+      </c>
+      <c r="CR1080" t="s">
+        <v>1590</v>
       </c>
     </row>
     <row r="1081" spans="1:96">
@@ -81883,13 +81910,13 @@
         <v>1174</v>
       </c>
       <c r="F1081">
-        <v>4275</v>
+        <v>4340</v>
       </c>
       <c r="G1081">
-        <v>832800</v>
+        <v>495100</v>
       </c>
       <c r="H1081">
-        <v>8.51</v>
+        <v>-3.67</v>
       </c>
       <c r="I1081">
         <v>2.38</v>
@@ -81900,17 +81927,14 @@
       <c r="K1081" t="s">
         <v>1511</v>
       </c>
-      <c r="X1081" t="s">
-        <v>1524</v>
+      <c r="Z1081" t="s">
+        <v>1526</v>
       </c>
       <c r="AD1081" t="s">
         <v>1530</v>
       </c>
-      <c r="AF1081" t="s">
-        <v>1532</v>
-      </c>
-      <c r="AH1081" t="s">
-        <v>1533</v>
+      <c r="AI1081" t="s">
+        <v>1534</v>
       </c>
       <c r="AK1081" t="s">
         <v>1536</v>
@@ -81938,12 +81962,6 @@
       </c>
       <c r="CC1081" t="s">
         <v>1575</v>
-      </c>
-      <c r="CQ1081" t="s">
-        <v>1589</v>
-      </c>
-      <c r="CR1081" t="s">
-        <v>1590</v>
       </c>
     </row>
     <row r="1082" spans="1:96">
@@ -81951,7 +81969,7 @@
         <v>1080</v>
       </c>
       <c r="B1082">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C1082">
         <v>3</v>
@@ -81963,13 +81981,13 @@
         <v>1175</v>
       </c>
       <c r="F1082">
-        <v>1614</v>
+        <v>1608</v>
       </c>
       <c r="G1082">
-        <v>9900</v>
+        <v>10700</v>
       </c>
       <c r="H1082">
-        <v>-4.6</v>
+        <v>-3.83</v>
       </c>
       <c r="I1082">
         <v>6.24</v>
@@ -81980,30 +81998,24 @@
       <c r="L1082" t="s">
         <v>1512</v>
       </c>
-      <c r="X1082" t="s">
-        <v>1524</v>
-      </c>
-      <c r="AL1082" t="s">
-        <v>1537</v>
-      </c>
-      <c r="AM1082" t="s">
-        <v>1538</v>
+      <c r="S1082" t="s">
+        <v>1519</v>
       </c>
       <c r="AN1082" t="s">
         <v>1539</v>
       </c>
-      <c r="AP1082" t="s">
-        <v>1540</v>
-      </c>
-      <c r="AS1082" t="s">
-        <v>1543</v>
-      </c>
-      <c r="AV1082" t="s">
-        <v>1546</v>
-      </c>
       <c r="BB1082" t="s">
         <v>1551</v>
       </c>
+      <c r="BC1082" t="s">
+        <v>1552</v>
+      </c>
+      <c r="BD1082" t="s">
+        <v>1553</v>
+      </c>
+      <c r="BI1082" t="s">
+        <v>1557</v>
+      </c>
       <c r="BJ1082" t="s">
         <v>1558</v>
       </c>
@@ -82024,6 +82036,9 @@
       </c>
       <c r="CD1082" t="s">
         <v>1576</v>
+      </c>
+      <c r="CH1082" t="s">
+        <v>1580</v>
       </c>
       <c r="CP1082" t="s">
         <v>1588</v>
@@ -82046,13 +82061,13 @@
         <v>1176</v>
       </c>
       <c r="F1083">
-        <v>1318</v>
+        <v>1618</v>
       </c>
       <c r="G1083">
-        <v>53600</v>
+        <v>500400</v>
       </c>
       <c r="H1083">
-        <v>1.65</v>
+        <v>101.15</v>
       </c>
       <c r="I1083">
         <v>0.75</v>
@@ -82060,18 +82075,15 @@
       <c r="J1083">
         <v>-16.43</v>
       </c>
-      <c r="K1083" t="s">
-        <v>1511</v>
+      <c r="M1083" t="s">
+        <v>1513</v>
+      </c>
+      <c r="Z1083" t="s">
+        <v>1526</v>
       </c>
       <c r="AD1083" t="s">
         <v>1530</v>
       </c>
-      <c r="AF1083" t="s">
-        <v>1532</v>
-      </c>
-      <c r="AJ1083" t="s">
-        <v>1535</v>
-      </c>
       <c r="AL1083" t="s">
         <v>1537</v>
       </c>
@@ -82104,6 +82116,12 @@
       </c>
       <c r="CP1083" t="s">
         <v>1588</v>
+      </c>
+      <c r="CQ1083" t="s">
+        <v>1589</v>
+      </c>
+      <c r="CR1083" t="s">
+        <v>1590</v>
       </c>
     </row>
     <row r="1084" spans="1:96">
@@ -82123,13 +82141,13 @@
         <v>1177</v>
       </c>
       <c r="F1084">
-        <v>2669</v>
+        <v>2954</v>
       </c>
       <c r="G1084">
-        <v>374800</v>
+        <v>717800</v>
       </c>
       <c r="H1084">
-        <v>9.789999999999999</v>
+        <v>30.73</v>
       </c>
       <c r="I1084">
         <v>8.5</v>
@@ -82137,62 +82155,32 @@
       <c r="J1084">
         <v>-7.11</v>
       </c>
-      <c r="L1084" t="s">
-        <v>1512</v>
-      </c>
-      <c r="N1084" t="s">
-        <v>1514</v>
-      </c>
-      <c r="U1084" t="s">
-        <v>1521</v>
-      </c>
-      <c r="V1084" t="s">
-        <v>1522</v>
-      </c>
-      <c r="Z1084" t="s">
-        <v>1526</v>
-      </c>
-      <c r="AA1084" t="s">
-        <v>1527</v>
+      <c r="K1084" t="s">
+        <v>1511</v>
       </c>
       <c r="AD1084" t="s">
         <v>1530</v>
       </c>
-      <c r="AE1084" t="s">
-        <v>1531</v>
-      </c>
-      <c r="AF1084" t="s">
-        <v>1532</v>
-      </c>
-      <c r="AK1084" t="s">
-        <v>1536</v>
-      </c>
       <c r="AL1084" t="s">
         <v>1537</v>
       </c>
       <c r="AT1084" t="s">
         <v>1544</v>
       </c>
-      <c r="BD1084" t="s">
-        <v>1553</v>
-      </c>
-      <c r="BL1084" t="s">
-        <v>1560</v>
+      <c r="BB1084" t="s">
+        <v>1551</v>
+      </c>
+      <c r="BH1084" t="s">
+        <v>1556</v>
+      </c>
+      <c r="BJ1084" t="s">
+        <v>1558</v>
+      </c>
+      <c r="BP1084" t="s">
+        <v>1563</v>
       </c>
       <c r="BR1084" t="s">
         <v>1565</v>
-      </c>
-      <c r="BS1084" t="s">
-        <v>1566</v>
-      </c>
-      <c r="BT1084" t="s">
-        <v>1567</v>
-      </c>
-      <c r="BV1084" t="s">
-        <v>1568</v>
-      </c>
-      <c r="BY1084" t="s">
-        <v>1571</v>
       </c>
       <c r="CA1084" t="s">
         <v>1573</v>
@@ -82218,7 +82206,7 @@
         <v>0</v>
       </c>
       <c r="C1085">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D1085">
         <v>7717</v>
@@ -82227,13 +82215,13 @@
         <v>1178</v>
       </c>
       <c r="F1085">
-        <v>3095</v>
+        <v>2500</v>
       </c>
       <c r="G1085">
-        <v>77600</v>
+        <v>535600</v>
       </c>
       <c r="H1085">
-        <v>-0.53</v>
+        <v>20.23</v>
       </c>
       <c r="I1085">
         <v>-0.8</v>
@@ -82244,26 +82232,8 @@
       <c r="K1085" t="s">
         <v>1511</v>
       </c>
-      <c r="Z1085" t="s">
-        <v>1526</v>
-      </c>
-      <c r="AD1085" t="s">
-        <v>1530</v>
-      </c>
-      <c r="AE1085" t="s">
-        <v>1531</v>
-      </c>
-      <c r="AF1085" t="s">
-        <v>1532</v>
-      </c>
-      <c r="AK1085" t="s">
-        <v>1536</v>
-      </c>
-      <c r="AL1085" t="s">
-        <v>1537</v>
-      </c>
-      <c r="AT1085" t="s">
-        <v>1544</v>
+      <c r="N1085" t="s">
+        <v>1514</v>
       </c>
       <c r="BB1085" t="s">
         <v>1551</v>
@@ -82280,9 +82250,6 @@
       <c r="CA1085" t="s">
         <v>1573</v>
       </c>
-      <c r="CB1085" t="s">
-        <v>1574</v>
-      </c>
       <c r="CC1085" t="s">
         <v>1575</v>
       </c>
@@ -82291,6 +82258,12 @@
       </c>
       <c r="CP1085" t="s">
         <v>1588</v>
+      </c>
+      <c r="CQ1085" t="s">
+        <v>1589</v>
+      </c>
+      <c r="CR1085" t="s">
+        <v>1590</v>
       </c>
     </row>
     <row r="1086" spans="1:96">
@@ -82310,13 +82283,13 @@
         <v>1179</v>
       </c>
       <c r="F1086">
-        <v>1830</v>
+        <v>1842</v>
       </c>
       <c r="G1086">
-        <v>427200</v>
+        <v>136700</v>
       </c>
       <c r="H1086">
-        <v>33.5</v>
+        <v>3.62</v>
       </c>
       <c r="I1086">
         <v>-11.87</v>
@@ -82324,24 +82297,21 @@
       <c r="J1086">
         <v>-25.54</v>
       </c>
-      <c r="K1086" t="s">
-        <v>1511</v>
-      </c>
-      <c r="Q1086" t="s">
-        <v>1517</v>
+      <c r="L1086" t="s">
+        <v>1512</v>
+      </c>
+      <c r="P1086" t="s">
+        <v>1516</v>
       </c>
       <c r="Z1086" t="s">
         <v>1526</v>
       </c>
-      <c r="AB1086" t="s">
-        <v>1528</v>
+      <c r="AA1086" t="s">
+        <v>1527</v>
       </c>
       <c r="AD1086" t="s">
         <v>1530</v>
       </c>
-      <c r="AJ1086" t="s">
-        <v>1535</v>
-      </c>
       <c r="AL1086" t="s">
         <v>1537</v>
       </c>
@@ -82374,9 +82344,6 @@
       </c>
       <c r="CI1086" t="s">
         <v>1581</v>
-      </c>
-      <c r="CP1086" t="s">
-        <v>1588</v>
       </c>
       <c r="CQ1086" t="s">
         <v>1589</v>
@@ -82390,10 +82357,10 @@
         <v>1085</v>
       </c>
       <c r="B1087">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C1087">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D1087">
         <v>7722</v>
@@ -82402,13 +82369,13 @@
         <v>1180</v>
       </c>
       <c r="F1087">
-        <v>534</v>
+        <v>536</v>
       </c>
       <c r="G1087">
-        <v>2700</v>
+        <v>12200</v>
       </c>
       <c r="H1087">
-        <v>-0.47</v>
+        <v>3.36</v>
       </c>
       <c r="I1087">
         <v>-11.04</v>
@@ -82422,9 +82389,6 @@
       <c r="N1087" t="s">
         <v>1514</v>
       </c>
-      <c r="R1087" t="s">
-        <v>1518</v>
-      </c>
       <c r="AD1087" t="s">
         <v>1530</v>
       </c>
@@ -82437,38 +82401,53 @@
       <c r="AN1087" t="s">
         <v>1539</v>
       </c>
-      <c r="AR1087" t="s">
-        <v>1542</v>
-      </c>
       <c r="AT1087" t="s">
         <v>1544</v>
       </c>
       <c r="AV1087" t="s">
         <v>1546</v>
       </c>
-      <c r="AZ1087" t="s">
-        <v>1549</v>
-      </c>
       <c r="BB1087" t="s">
         <v>1551</v>
       </c>
+      <c r="BC1087" t="s">
+        <v>1552</v>
+      </c>
       <c r="BD1087" t="s">
         <v>1553</v>
       </c>
+      <c r="BI1087" t="s">
+        <v>1557</v>
+      </c>
       <c r="BJ1087" t="s">
         <v>1558</v>
       </c>
       <c r="BZ1087" t="s">
         <v>1572</v>
       </c>
+      <c r="CB1087" t="s">
+        <v>1574</v>
+      </c>
       <c r="CC1087" t="s">
         <v>1575</v>
       </c>
+      <c r="CE1087" t="s">
+        <v>1577</v>
+      </c>
       <c r="CH1087" t="s">
         <v>1580</v>
       </c>
       <c r="CI1087" t="s">
         <v>1581</v>
+      </c>
+      <c r="CP1087" t="s">
+        <v>1588</v>
+      </c>
+      <c r="CQ1087" t="s">
+        <v>1589</v>
+      </c>
+      <c r="CR1087" t="s">
+        <v>1590</v>
       </c>
     </row>
     <row r="1088" spans="1:96">
@@ -82488,13 +82467,13 @@
         <v>1181</v>
       </c>
       <c r="F1088">
-        <v>1337</v>
+        <v>1341</v>
       </c>
       <c r="G1088">
-        <v>66800</v>
+        <v>71300</v>
       </c>
       <c r="H1088">
-        <v>-6.84</v>
+        <v>-6.9</v>
       </c>
       <c r="I1088">
         <v>14.68</v>
@@ -82502,11 +82481,29 @@
       <c r="J1088">
         <v>31.68</v>
       </c>
-      <c r="L1088" t="s">
-        <v>1512</v>
+      <c r="K1088" t="s">
+        <v>1511</v>
+      </c>
+      <c r="W1088" t="s">
+        <v>1523</v>
+      </c>
+      <c r="X1088" t="s">
+        <v>1524</v>
+      </c>
+      <c r="AD1088" t="s">
+        <v>1530</v>
       </c>
       <c r="AF1088" t="s">
         <v>1532</v>
+      </c>
+      <c r="AH1088" t="s">
+        <v>1533</v>
+      </c>
+      <c r="AJ1088" t="s">
+        <v>1535</v>
+      </c>
+      <c r="AK1088" t="s">
+        <v>1536</v>
       </c>
       <c r="CP1088" t="s">
         <v>1588</v>
@@ -82529,13 +82526,13 @@
         <v>1182</v>
       </c>
       <c r="F1089">
-        <v>5240</v>
+        <v>5250</v>
       </c>
       <c r="G1089">
-        <v>298000</v>
+        <v>517700</v>
       </c>
       <c r="H1089">
-        <v>10.62</v>
+        <v>37.31</v>
       </c>
       <c r="I1089">
         <v>-2.28</v>
@@ -82615,13 +82612,13 @@
         <v>1183</v>
       </c>
       <c r="F1090">
-        <v>1710</v>
+        <v>1726</v>
       </c>
       <c r="G1090">
-        <v>378200</v>
+        <v>278500</v>
       </c>
       <c r="H1090">
-        <v>6.05</v>
+        <v>-0.25</v>
       </c>
       <c r="I1090">
         <v>16</v>
@@ -82632,32 +82629,29 @@
       <c r="K1090" t="s">
         <v>1511</v>
       </c>
-      <c r="O1090" t="s">
-        <v>1515</v>
-      </c>
-      <c r="R1090" t="s">
-        <v>1518</v>
-      </c>
-      <c r="W1090" t="s">
-        <v>1523</v>
-      </c>
-      <c r="X1090" t="s">
-        <v>1524</v>
-      </c>
-      <c r="Y1090" t="s">
-        <v>1525</v>
+      <c r="Q1090" t="s">
+        <v>1517</v>
+      </c>
+      <c r="Z1090" t="s">
+        <v>1526</v>
+      </c>
+      <c r="AB1090" t="s">
+        <v>1528</v>
+      </c>
+      <c r="AD1090" t="s">
+        <v>1530</v>
+      </c>
+      <c r="AE1090" t="s">
+        <v>1531</v>
       </c>
       <c r="AF1090" t="s">
         <v>1532</v>
       </c>
-      <c r="CP1090" t="s">
-        <v>1588</v>
-      </c>
-      <c r="CQ1090" t="s">
-        <v>1589</v>
-      </c>
-      <c r="CR1090" t="s">
-        <v>1590</v>
+      <c r="AJ1090" t="s">
+        <v>1535</v>
+      </c>
+      <c r="AK1090" t="s">
+        <v>1536</v>
       </c>
     </row>
     <row r="1091" spans="1:96">
@@ -82677,13 +82671,13 @@
         <v>1184</v>
       </c>
       <c r="F1091">
-        <v>1481</v>
+        <v>1465</v>
       </c>
       <c r="G1091">
-        <v>4677100</v>
+        <v>1780300</v>
       </c>
       <c r="H1091">
-        <v>29.79</v>
+        <v>-3.67</v>
       </c>
       <c r="I1091">
         <v>-2.88</v>
@@ -82691,27 +82685,27 @@
       <c r="J1091">
         <v>-21.98</v>
       </c>
-      <c r="K1091" t="s">
-        <v>1511</v>
-      </c>
-      <c r="T1091" t="s">
-        <v>1520</v>
-      </c>
-      <c r="W1091" t="s">
-        <v>1523</v>
-      </c>
-      <c r="X1091" t="s">
-        <v>1524</v>
-      </c>
-      <c r="Y1091" t="s">
-        <v>1525</v>
+      <c r="L1091" t="s">
+        <v>1512</v>
+      </c>
+      <c r="Q1091" t="s">
+        <v>1517</v>
       </c>
       <c r="AD1091" t="s">
         <v>1530</v>
       </c>
+      <c r="AE1091" t="s">
+        <v>1531</v>
+      </c>
       <c r="AF1091" t="s">
         <v>1532</v>
       </c>
+      <c r="AH1091" t="s">
+        <v>1533</v>
+      </c>
+      <c r="AK1091" t="s">
+        <v>1536</v>
+      </c>
       <c r="AL1091" t="s">
         <v>1537</v>
       </c>
@@ -82735,15 +82729,6 @@
       </c>
       <c r="CC1091" t="s">
         <v>1575</v>
-      </c>
-      <c r="CP1091" t="s">
-        <v>1588</v>
-      </c>
-      <c r="CQ1091" t="s">
-        <v>1589</v>
-      </c>
-      <c r="CR1091" t="s">
-        <v>1590</v>
       </c>
     </row>
     <row r="1092" spans="1:96">
@@ -82751,7 +82736,7 @@
         <v>1090</v>
       </c>
       <c r="B1092">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C1092">
         <v>3</v>
@@ -82763,13 +82748,13 @@
         <v>1185</v>
       </c>
       <c r="F1092">
-        <v>1980</v>
+        <v>1777</v>
       </c>
       <c r="G1092">
-        <v>539600</v>
+        <v>1822500</v>
       </c>
       <c r="H1092">
-        <v>9.539999999999999</v>
+        <v>104.65</v>
       </c>
       <c r="I1092">
         <v>-3.47</v>
@@ -82780,38 +82765,35 @@
       <c r="K1092" t="s">
         <v>1511</v>
       </c>
-      <c r="W1092" t="s">
-        <v>1523</v>
-      </c>
-      <c r="X1092" t="s">
-        <v>1524</v>
-      </c>
-      <c r="AD1092" t="s">
-        <v>1530</v>
-      </c>
-      <c r="AF1092" t="s">
-        <v>1532</v>
-      </c>
-      <c r="AH1092" t="s">
-        <v>1533</v>
-      </c>
-      <c r="AK1092" t="s">
-        <v>1536</v>
-      </c>
-      <c r="AL1092" t="s">
-        <v>1537</v>
-      </c>
-      <c r="AT1092" t="s">
-        <v>1544</v>
-      </c>
-      <c r="BB1092" t="s">
-        <v>1551</v>
+      <c r="Q1092" t="s">
+        <v>1517</v>
+      </c>
+      <c r="T1092" t="s">
+        <v>1520</v>
       </c>
       <c r="BJ1092" t="s">
         <v>1558</v>
       </c>
+      <c r="BL1092" t="s">
+        <v>1560</v>
+      </c>
+      <c r="BN1092" t="s">
+        <v>1561</v>
+      </c>
+      <c r="BQ1092" t="s">
+        <v>1564</v>
+      </c>
       <c r="BR1092" t="s">
         <v>1565</v>
+      </c>
+      <c r="BS1092" t="s">
+        <v>1566</v>
+      </c>
+      <c r="BT1092" t="s">
+        <v>1567</v>
+      </c>
+      <c r="BY1092" t="s">
+        <v>1571</v>
       </c>
       <c r="BZ1092" t="s">
         <v>1572</v>
@@ -82843,7 +82825,7 @@
         <v>1091</v>
       </c>
       <c r="B1093">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C1093">
         <v>0</v>
@@ -82855,13 +82837,13 @@
         <v>1186</v>
       </c>
       <c r="F1093">
-        <v>2438</v>
+        <v>2273</v>
       </c>
       <c r="G1093">
-        <v>7646300</v>
+        <v>18953000</v>
       </c>
       <c r="H1093">
-        <v>10.59</v>
+        <v>51.76</v>
       </c>
       <c r="I1093">
         <v>-0.34</v>
@@ -82869,74 +82851,17 @@
       <c r="J1093">
         <v>47.56</v>
       </c>
-      <c r="L1093" t="s">
-        <v>1512</v>
-      </c>
-      <c r="AD1093" t="s">
-        <v>1530</v>
-      </c>
-      <c r="AE1093" t="s">
-        <v>1531</v>
-      </c>
-      <c r="AF1093" t="s">
-        <v>1532</v>
-      </c>
-      <c r="AH1093" t="s">
-        <v>1533</v>
-      </c>
-      <c r="AJ1093" t="s">
-        <v>1535</v>
-      </c>
-      <c r="AK1093" t="s">
-        <v>1536</v>
-      </c>
-      <c r="AL1093" t="s">
-        <v>1537</v>
-      </c>
-      <c r="AM1093" t="s">
-        <v>1538</v>
-      </c>
-      <c r="AN1093" t="s">
-        <v>1539</v>
-      </c>
-      <c r="AP1093" t="s">
-        <v>1540</v>
-      </c>
-      <c r="AR1093" t="s">
-        <v>1542</v>
-      </c>
-      <c r="AS1093" t="s">
-        <v>1543</v>
-      </c>
-      <c r="AT1093" t="s">
-        <v>1544</v>
-      </c>
-      <c r="AU1093" t="s">
-        <v>1545</v>
-      </c>
-      <c r="AV1093" t="s">
-        <v>1546</v>
-      </c>
-      <c r="AX1093" t="s">
-        <v>1547</v>
-      </c>
-      <c r="AZ1093" t="s">
-        <v>1549</v>
-      </c>
-      <c r="BA1093" t="s">
-        <v>1550</v>
-      </c>
-      <c r="BB1093" t="s">
-        <v>1551</v>
-      </c>
-      <c r="BJ1093" t="s">
-        <v>1558</v>
+      <c r="K1093" t="s">
+        <v>1511</v>
+      </c>
+      <c r="O1093" t="s">
+        <v>1515</v>
+      </c>
+      <c r="X1093" t="s">
+        <v>1524</v>
       </c>
       <c r="BZ1093" t="s">
         <v>1572</v>
-      </c>
-      <c r="CH1093" t="s">
-        <v>1580</v>
       </c>
       <c r="CK1093" t="s">
         <v>1583</v>
@@ -82968,13 +82893,13 @@
         <v>1187</v>
       </c>
       <c r="F1094">
-        <v>4665</v>
+        <v>4795</v>
       </c>
       <c r="G1094">
-        <v>145000</v>
+        <v>96200</v>
       </c>
       <c r="H1094">
-        <v>13.93</v>
+        <v>6.26</v>
       </c>
       <c r="I1094">
         <v>6.65</v>
@@ -82982,17 +82907,8 @@
       <c r="J1094">
         <v>11.87</v>
       </c>
-      <c r="L1094" t="s">
-        <v>1512</v>
-      </c>
-      <c r="S1094" t="s">
-        <v>1519</v>
-      </c>
-      <c r="U1094" t="s">
-        <v>1521</v>
-      </c>
-      <c r="BL1094" t="s">
-        <v>1560</v>
+      <c r="K1094" t="s">
+        <v>1511</v>
       </c>
       <c r="BR1094" t="s">
         <v>1565</v>
@@ -83008,9 +82924,6 @@
       </c>
       <c r="CI1094" t="s">
         <v>1581</v>
-      </c>
-      <c r="CP1094" t="s">
-        <v>1588</v>
       </c>
       <c r="CQ1094" t="s">
         <v>1589</v>
@@ -83036,13 +82949,13 @@
         <v>1188</v>
       </c>
       <c r="F1095">
-        <v>11810</v>
+        <v>11790</v>
       </c>
       <c r="G1095">
-        <v>1332800</v>
+        <v>564300</v>
       </c>
       <c r="H1095">
-        <v>15.05</v>
+        <v>-2.02</v>
       </c>
       <c r="I1095">
         <v>-3.43</v>
@@ -83050,8 +82963,11 @@
       <c r="J1095">
         <v>-23.29</v>
       </c>
-      <c r="K1095" t="s">
-        <v>1511</v>
+      <c r="L1095" t="s">
+        <v>1512</v>
+      </c>
+      <c r="Z1095" t="s">
+        <v>1526</v>
       </c>
       <c r="AD1095" t="s">
         <v>1530</v>
@@ -83082,12 +82998,6 @@
       </c>
       <c r="CD1095" t="s">
         <v>1576</v>
-      </c>
-      <c r="CQ1095" t="s">
-        <v>1589</v>
-      </c>
-      <c r="CR1095" t="s">
-        <v>1590</v>
       </c>
     </row>
     <row r="1096" spans="1:96">
@@ -83098,7 +83008,7 @@
         <v>0</v>
       </c>
       <c r="C1096">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D1096">
         <v>7740</v>
@@ -83107,13 +83017,13 @@
         <v>1189</v>
       </c>
       <c r="F1096">
-        <v>3475</v>
+        <v>3505</v>
       </c>
       <c r="G1096">
-        <v>59100</v>
+        <v>38800</v>
       </c>
       <c r="H1096">
-        <v>-0.49</v>
+        <v>-3.44</v>
       </c>
       <c r="I1096">
         <v>10.54</v>
@@ -83124,26 +83034,11 @@
       <c r="L1096" t="s">
         <v>1512</v>
       </c>
-      <c r="Q1096" t="s">
-        <v>1517</v>
-      </c>
-      <c r="Z1096" t="s">
-        <v>1526</v>
-      </c>
-      <c r="AB1096" t="s">
-        <v>1528</v>
-      </c>
       <c r="AD1096" t="s">
         <v>1530</v>
       </c>
-      <c r="AE1096" t="s">
-        <v>1531</v>
-      </c>
-      <c r="AF1096" t="s">
-        <v>1532</v>
-      </c>
-      <c r="AH1096" t="s">
-        <v>1533</v>
+      <c r="AI1096" t="s">
+        <v>1534</v>
       </c>
       <c r="AK1096" t="s">
         <v>1536</v>
@@ -83163,11 +83058,26 @@
       <c r="BR1096" t="s">
         <v>1565</v>
       </c>
+      <c r="BZ1096" t="s">
+        <v>1572</v>
+      </c>
       <c r="CA1096" t="s">
         <v>1573</v>
       </c>
+      <c r="CB1096" t="s">
+        <v>1574</v>
+      </c>
       <c r="CC1096" t="s">
         <v>1575</v>
+      </c>
+      <c r="CD1096" t="s">
+        <v>1576</v>
+      </c>
+      <c r="CE1096" t="s">
+        <v>1577</v>
+      </c>
+      <c r="CG1096" t="s">
+        <v>1579</v>
       </c>
       <c r="CJ1096" t="s">
         <v>1582</v>
@@ -83193,13 +83103,13 @@
         <v>1190</v>
       </c>
       <c r="F1097">
-        <v>15300</v>
+        <v>15400</v>
       </c>
       <c r="G1097">
-        <v>1372000</v>
+        <v>701600</v>
       </c>
       <c r="H1097">
-        <v>7.02</v>
+        <v>-10.83</v>
       </c>
       <c r="I1097">
         <v>4.47</v>
@@ -83207,18 +83117,15 @@
       <c r="J1097">
         <v>10.72</v>
       </c>
-      <c r="K1097" t="s">
-        <v>1511</v>
-      </c>
-      <c r="P1097" t="s">
-        <v>1516</v>
+      <c r="L1097" t="s">
+        <v>1512</v>
+      </c>
+      <c r="Z1097" t="s">
+        <v>1526</v>
       </c>
       <c r="AD1097" t="s">
         <v>1530</v>
       </c>
-      <c r="AJ1097" t="s">
-        <v>1535</v>
-      </c>
       <c r="AL1097" t="s">
         <v>1537</v>
       </c>
@@ -83248,18 +83155,6 @@
       </c>
       <c r="CD1097" t="s">
         <v>1576</v>
-      </c>
-      <c r="CL1097" t="s">
-        <v>1584</v>
-      </c>
-      <c r="CP1097" t="s">
-        <v>1588</v>
-      </c>
-      <c r="CQ1097" t="s">
-        <v>1589</v>
-      </c>
-      <c r="CR1097" t="s">
-        <v>1590</v>
       </c>
     </row>
     <row r="1098" spans="1:96">
@@ -83270,7 +83165,7 @@
         <v>0</v>
       </c>
       <c r="C1098">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D1098">
         <v>7743</v>
@@ -83279,13 +83174,13 @@
         <v>1191</v>
       </c>
       <c r="F1098">
-        <v>591</v>
+        <v>586</v>
       </c>
       <c r="G1098">
-        <v>19700</v>
+        <v>52700</v>
       </c>
       <c r="H1098">
-        <v>-3.61</v>
+        <v>21.44</v>
       </c>
       <c r="I1098">
         <v>0.02</v>
@@ -83296,11 +83191,8 @@
       <c r="L1098" t="s">
         <v>1512</v>
       </c>
-      <c r="S1098" t="s">
-        <v>1519</v>
-      </c>
-      <c r="Z1098" t="s">
-        <v>1526</v>
+      <c r="AF1098" t="s">
+        <v>1532</v>
       </c>
       <c r="AL1098" t="s">
         <v>1537</v>
@@ -83332,14 +83224,17 @@
       <c r="CD1098" t="s">
         <v>1576</v>
       </c>
-      <c r="CF1098" t="s">
-        <v>1578</v>
-      </c>
       <c r="CI1098" t="s">
         <v>1581</v>
       </c>
       <c r="CP1098" t="s">
         <v>1588</v>
+      </c>
+      <c r="CQ1098" t="s">
+        <v>1589</v>
+      </c>
+      <c r="CR1098" t="s">
+        <v>1590</v>
       </c>
     </row>
     <row r="1099" spans="1:96">
@@ -83347,7 +83242,7 @@
         <v>1097</v>
       </c>
       <c r="B1099">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C1099">
         <v>1</v>
@@ -83359,13 +83254,13 @@
         <v>1192</v>
       </c>
       <c r="F1099">
-        <v>1274</v>
+        <v>1382</v>
       </c>
       <c r="G1099">
-        <v>211600</v>
+        <v>639600</v>
       </c>
       <c r="H1099">
-        <v>2.53</v>
+        <v>32.67</v>
       </c>
       <c r="I1099">
         <v>-2.36</v>
@@ -83373,20 +83268,68 @@
       <c r="J1099">
         <v>-15.76</v>
       </c>
-      <c r="L1099" t="s">
-        <v>1512</v>
+      <c r="K1099" t="s">
+        <v>1511</v>
       </c>
       <c r="O1099" t="s">
         <v>1515</v>
       </c>
-      <c r="X1099" t="s">
-        <v>1524</v>
-      </c>
-      <c r="Y1099" t="s">
-        <v>1525</v>
-      </c>
-      <c r="BL1099" t="s">
-        <v>1560</v>
+      <c r="AD1099" t="s">
+        <v>1530</v>
+      </c>
+      <c r="AJ1099" t="s">
+        <v>1535</v>
+      </c>
+      <c r="AL1099" t="s">
+        <v>1537</v>
+      </c>
+      <c r="AM1099" t="s">
+        <v>1538</v>
+      </c>
+      <c r="AN1099" t="s">
+        <v>1539</v>
+      </c>
+      <c r="AR1099" t="s">
+        <v>1542</v>
+      </c>
+      <c r="AS1099" t="s">
+        <v>1543</v>
+      </c>
+      <c r="AT1099" t="s">
+        <v>1544</v>
+      </c>
+      <c r="AU1099" t="s">
+        <v>1545</v>
+      </c>
+      <c r="AV1099" t="s">
+        <v>1546</v>
+      </c>
+      <c r="AZ1099" t="s">
+        <v>1549</v>
+      </c>
+      <c r="BA1099" t="s">
+        <v>1550</v>
+      </c>
+      <c r="BB1099" t="s">
+        <v>1551</v>
+      </c>
+      <c r="BD1099" t="s">
+        <v>1553</v>
+      </c>
+      <c r="BF1099" t="s">
+        <v>1554</v>
+      </c>
+      <c r="BH1099" t="s">
+        <v>1556</v>
+      </c>
+      <c r="BI1099" t="s">
+        <v>1557</v>
+      </c>
+      <c r="BJ1099" t="s">
+        <v>1558</v>
+      </c>
+      <c r="BP1099" t="s">
+        <v>1563</v>
       </c>
       <c r="BR1099" t="s">
         <v>1565</v>
@@ -83405,6 +83348,9 @@
       </c>
       <c r="CQ1099" t="s">
         <v>1589</v>
+      </c>
+      <c r="CR1099" t="s">
+        <v>1590</v>
       </c>
     </row>
     <row r="1100" spans="1:96">
@@ -83424,13 +83370,13 @@
         <v>1193</v>
       </c>
       <c r="F1100">
-        <v>2544</v>
+        <v>2574</v>
       </c>
       <c r="G1100">
-        <v>594100</v>
+        <v>633400</v>
       </c>
       <c r="H1100">
-        <v>-0.83</v>
+        <v>-0.3</v>
       </c>
       <c r="I1100">
         <v>18.9</v>
@@ -83441,20 +83387,29 @@
       <c r="K1100" t="s">
         <v>1511</v>
       </c>
-      <c r="R1100" t="s">
-        <v>1518</v>
+      <c r="Q1100" t="s">
+        <v>1517</v>
       </c>
       <c r="Z1100" t="s">
         <v>1526</v>
       </c>
+      <c r="AA1100" t="s">
+        <v>1527</v>
+      </c>
+      <c r="AB1100" t="s">
+        <v>1528</v>
+      </c>
       <c r="AD1100" t="s">
         <v>1530</v>
       </c>
+      <c r="AE1100" t="s">
+        <v>1531</v>
+      </c>
       <c r="AF1100" t="s">
         <v>1532</v>
       </c>
-      <c r="AJ1100" t="s">
-        <v>1535</v>
+      <c r="AK1100" t="s">
+        <v>1536</v>
       </c>
       <c r="AL1100" t="s">
         <v>1537</v>
@@ -83501,13 +83456,13 @@
         <v>1194</v>
       </c>
       <c r="F1101">
-        <v>3222</v>
+        <v>3245</v>
       </c>
       <c r="G1101">
-        <v>3032100</v>
+        <v>2304800</v>
       </c>
       <c r="H1101">
-        <v>-2.81</v>
+        <v>-7.97</v>
       </c>
       <c r="I1101">
         <v>4.78</v>
@@ -83515,15 +83470,27 @@
       <c r="J1101">
         <v>10.56</v>
       </c>
-      <c r="L1101" t="s">
-        <v>1512</v>
+      <c r="K1101" t="s">
+        <v>1511</v>
       </c>
       <c r="O1101" t="s">
         <v>1515</v>
       </c>
+      <c r="AD1101" t="s">
+        <v>1530</v>
+      </c>
+      <c r="AE1101" t="s">
+        <v>1531</v>
+      </c>
       <c r="AF1101" t="s">
         <v>1532</v>
       </c>
+      <c r="AJ1101" t="s">
+        <v>1535</v>
+      </c>
+      <c r="AK1101" t="s">
+        <v>1536</v>
+      </c>
       <c r="AL1101" t="s">
         <v>1537</v>
       </c>
@@ -83547,9 +83514,6 @@
       </c>
       <c r="CC1101" t="s">
         <v>1575</v>
-      </c>
-      <c r="CP1101" t="s">
-        <v>1588</v>
       </c>
     </row>
     <row r="1102" spans="1:96">
@@ -83557,7 +83521,7 @@
         <v>1100</v>
       </c>
       <c r="B1102">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C1102">
         <v>1</v>
@@ -83569,13 +83533,13 @@
         <v>1195</v>
       </c>
       <c r="F1102">
-        <v>1033</v>
+        <v>1052</v>
       </c>
       <c r="G1102">
-        <v>3691400</v>
+        <v>2178700</v>
       </c>
       <c r="H1102">
-        <v>5.45</v>
+        <v>-1.21</v>
       </c>
       <c r="I1102">
         <v>1.98</v>
@@ -83583,11 +83547,23 @@
       <c r="J1102">
         <v>17.33</v>
       </c>
-      <c r="L1102" t="s">
-        <v>1512</v>
-      </c>
-      <c r="Z1102" t="s">
-        <v>1526</v>
+      <c r="K1102" t="s">
+        <v>1511</v>
+      </c>
+      <c r="AD1102" t="s">
+        <v>1530</v>
+      </c>
+      <c r="AE1102" t="s">
+        <v>1531</v>
+      </c>
+      <c r="AF1102" t="s">
+        <v>1532</v>
+      </c>
+      <c r="AJ1102" t="s">
+        <v>1535</v>
+      </c>
+      <c r="AK1102" t="s">
+        <v>1536</v>
       </c>
       <c r="AL1102" t="s">
         <v>1537</v>
@@ -83598,15 +83574,24 @@
       <c r="BB1102" t="s">
         <v>1551</v>
       </c>
-      <c r="BG1102" t="s">
-        <v>1555</v>
-      </c>
-      <c r="BI1102" t="s">
-        <v>1557</v>
-      </c>
       <c r="BJ1102" t="s">
         <v>1558</v>
       </c>
+      <c r="BR1102" t="s">
+        <v>1565</v>
+      </c>
+      <c r="BT1102" t="s">
+        <v>1567</v>
+      </c>
+      <c r="BV1102" t="s">
+        <v>1568</v>
+      </c>
+      <c r="BX1102" t="s">
+        <v>1570</v>
+      </c>
+      <c r="BY1102" t="s">
+        <v>1571</v>
+      </c>
       <c r="BZ1102" t="s">
         <v>1572</v>
       </c>
@@ -83621,15 +83606,6 @@
       </c>
       <c r="CJ1102" t="s">
         <v>1582</v>
-      </c>
-      <c r="CP1102" t="s">
-        <v>1588</v>
-      </c>
-      <c r="CQ1102" t="s">
-        <v>1589</v>
-      </c>
-      <c r="CR1102" t="s">
-        <v>1590</v>
       </c>
     </row>
     <row r="1103" spans="1:96">
@@ -83649,13 +83625,13 @@
         <v>1196</v>
       </c>
       <c r="F1103">
-        <v>770</v>
+        <v>797</v>
       </c>
       <c r="G1103">
-        <v>3241400</v>
+        <v>5155800</v>
       </c>
       <c r="H1103">
-        <v>-1.2</v>
+        <v>1.96</v>
       </c>
       <c r="I1103">
         <v>-0.6</v>
@@ -83666,20 +83642,11 @@
       <c r="L1103" t="s">
         <v>1512</v>
       </c>
-      <c r="Q1103" t="s">
-        <v>1517</v>
-      </c>
       <c r="AD1103" t="s">
         <v>1530</v>
       </c>
-      <c r="AE1103" t="s">
-        <v>1531</v>
-      </c>
-      <c r="AF1103" t="s">
-        <v>1532</v>
-      </c>
-      <c r="AH1103" t="s">
-        <v>1533</v>
+      <c r="AI1103" t="s">
+        <v>1534</v>
       </c>
       <c r="AK1103" t="s">
         <v>1536</v>
@@ -83687,26 +83654,23 @@
       <c r="AL1103" t="s">
         <v>1537</v>
       </c>
-      <c r="AM1103" t="s">
-        <v>1538</v>
-      </c>
-      <c r="AN1103" t="s">
-        <v>1539</v>
-      </c>
-      <c r="AS1103" t="s">
-        <v>1543</v>
-      </c>
       <c r="AT1103" t="s">
         <v>1544</v>
       </c>
-      <c r="AU1103" t="s">
-        <v>1545</v>
-      </c>
-      <c r="AV1103" t="s">
-        <v>1546</v>
-      </c>
-      <c r="BA1103" t="s">
-        <v>1550</v>
+      <c r="BB1103" t="s">
+        <v>1551</v>
+      </c>
+      <c r="BC1103" t="s">
+        <v>1552</v>
+      </c>
+      <c r="BD1103" t="s">
+        <v>1553</v>
+      </c>
+      <c r="BH1103" t="s">
+        <v>1556</v>
+      </c>
+      <c r="BI1103" t="s">
+        <v>1557</v>
       </c>
       <c r="BJ1103" t="s">
         <v>1558</v>
@@ -83725,9 +83689,6 @@
       </c>
       <c r="CD1103" t="s">
         <v>1576</v>
-      </c>
-      <c r="CE1103" t="s">
-        <v>1577</v>
       </c>
       <c r="CP1103" t="s">
         <v>1588</v>
@@ -83738,7 +83699,7 @@
         <v>1102</v>
       </c>
       <c r="B1104">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C1104">
         <v>2</v>
@@ -83750,13 +83711,13 @@
         <v>1197</v>
       </c>
       <c r="F1104">
-        <v>536</v>
+        <v>538</v>
       </c>
       <c r="G1104">
-        <v>127800</v>
+        <v>67500</v>
       </c>
       <c r="H1104">
-        <v>1.2</v>
+        <v>-0.97</v>
       </c>
       <c r="I1104">
         <v>39.37</v>
@@ -83770,21 +83731,12 @@
       <c r="O1104" t="s">
         <v>1515</v>
       </c>
-      <c r="X1104" t="s">
-        <v>1524</v>
-      </c>
-      <c r="Y1104" t="s">
-        <v>1525</v>
-      </c>
       <c r="AV1104" t="s">
         <v>1546</v>
       </c>
       <c r="BB1104" t="s">
         <v>1551</v>
       </c>
-      <c r="BF1104" t="s">
-        <v>1554</v>
-      </c>
       <c r="BG1104" t="s">
         <v>1555</v>
       </c>
@@ -83805,9 +83757,6 @@
       </c>
       <c r="CC1104" t="s">
         <v>1575</v>
-      </c>
-      <c r="CP1104" t="s">
-        <v>1588</v>
       </c>
     </row>
     <row r="1105" spans="1:96">
@@ -83827,13 +83776,13 @@
         <v>1198</v>
       </c>
       <c r="F1105">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="G1105">
-        <v>19500</v>
+        <v>38300</v>
       </c>
       <c r="H1105">
-        <v>-16.91</v>
+        <v>-3.54</v>
       </c>
       <c r="I1105">
         <v>6.85</v>
@@ -83841,17 +83790,17 @@
       <c r="J1105">
         <v>-0.45</v>
       </c>
-      <c r="M1105" t="s">
-        <v>1513</v>
-      </c>
-      <c r="AE1105" t="s">
-        <v>1531</v>
+      <c r="L1105" t="s">
+        <v>1512</v>
+      </c>
+      <c r="Q1105" t="s">
+        <v>1517</v>
+      </c>
+      <c r="S1105" t="s">
+        <v>1519</v>
       </c>
       <c r="AF1105" t="s">
         <v>1532</v>
-      </c>
-      <c r="AH1105" t="s">
-        <v>1533</v>
       </c>
       <c r="AL1105" t="s">
         <v>1537</v>
@@ -83913,10 +83862,10 @@
         <v>277</v>
       </c>
       <c r="G1106">
-        <v>348000</v>
+        <v>721600</v>
       </c>
       <c r="H1106">
-        <v>2.7</v>
+        <v>9.210000000000001</v>
       </c>
       <c r="I1106">
         <v>50</v>
@@ -83924,15 +83873,21 @@
       <c r="J1106">
         <v>-62.88</v>
       </c>
-      <c r="K1106" t="s">
-        <v>1511</v>
-      </c>
-      <c r="R1106" t="s">
-        <v>1518</v>
+      <c r="L1106" t="s">
+        <v>1512</v>
+      </c>
+      <c r="S1106" t="s">
+        <v>1519</v>
+      </c>
+      <c r="Z1106" t="s">
+        <v>1526</v>
       </c>
       <c r="AD1106" t="s">
         <v>1530</v>
       </c>
+      <c r="AE1106" t="s">
+        <v>1531</v>
+      </c>
       <c r="AF1106" t="s">
         <v>1532</v>
       </c>
@@ -83942,8 +83897,14 @@
       <c r="AK1106" t="s">
         <v>1536</v>
       </c>
+      <c r="CP1106" t="s">
+        <v>1588</v>
+      </c>
       <c r="CQ1106" t="s">
         <v>1589</v>
+      </c>
+      <c r="CR1106" t="s">
+        <v>1590</v>
       </c>
     </row>
     <row r="1107" spans="1:96">
@@ -83963,13 +83924,13 @@
         <v>1200</v>
       </c>
       <c r="F1107">
-        <v>2925</v>
+        <v>2792</v>
       </c>
       <c r="G1107">
-        <v>326100</v>
+        <v>1137500</v>
       </c>
       <c r="H1107">
-        <v>0.83</v>
+        <v>11.62</v>
       </c>
       <c r="I1107">
         <v>9.470000000000001</v>
@@ -83980,47 +83941,35 @@
       <c r="L1107" t="s">
         <v>1512</v>
       </c>
-      <c r="N1107" t="s">
-        <v>1514</v>
-      </c>
-      <c r="Q1107" t="s">
-        <v>1517</v>
-      </c>
-      <c r="Z1107" t="s">
-        <v>1526</v>
-      </c>
-      <c r="AB1107" t="s">
-        <v>1528</v>
-      </c>
-      <c r="AD1107" t="s">
-        <v>1530</v>
-      </c>
-      <c r="AE1107" t="s">
-        <v>1531</v>
+      <c r="U1107" t="s">
+        <v>1521</v>
       </c>
       <c r="AF1107" t="s">
         <v>1532</v>
       </c>
-      <c r="AK1107" t="s">
-        <v>1536</v>
-      </c>
-      <c r="AL1107" t="s">
-        <v>1537</v>
-      </c>
-      <c r="AT1107" t="s">
-        <v>1544</v>
-      </c>
-      <c r="BB1107" t="s">
-        <v>1551</v>
-      </c>
-      <c r="BJ1107" t="s">
-        <v>1558</v>
+      <c r="AN1107" t="s">
+        <v>1539</v>
+      </c>
+      <c r="AV1107" t="s">
+        <v>1546</v>
+      </c>
+      <c r="BD1107" t="s">
+        <v>1553</v>
+      </c>
+      <c r="BL1107" t="s">
+        <v>1560</v>
       </c>
       <c r="BT1107" t="s">
         <v>1567</v>
       </c>
       <c r="CP1107" t="s">
         <v>1588</v>
+      </c>
+      <c r="CQ1107" t="s">
+        <v>1589</v>
+      </c>
+      <c r="CR1107" t="s">
+        <v>1590</v>
       </c>
     </row>
     <row r="1108" spans="1:96">
@@ -84043,10 +83992,10 @@
         <v>828</v>
       </c>
       <c r="G1108">
-        <v>27600</v>
+        <v>6300</v>
       </c>
       <c r="H1108">
-        <v>4.17</v>
+        <v>0.38</v>
       </c>
       <c r="I1108">
         <v>9.35</v>
@@ -84054,23 +84003,8 @@
       <c r="J1108">
         <v>24.62</v>
       </c>
-      <c r="L1108" t="s">
-        <v>1512</v>
-      </c>
-      <c r="N1108" t="s">
-        <v>1514</v>
-      </c>
-      <c r="Q1108" t="s">
-        <v>1517</v>
-      </c>
-      <c r="Z1108" t="s">
-        <v>1526</v>
-      </c>
-      <c r="AA1108" t="s">
-        <v>1527</v>
-      </c>
-      <c r="AB1108" t="s">
-        <v>1528</v>
+      <c r="M1108" t="s">
+        <v>1513</v>
       </c>
       <c r="AD1108" t="s">
         <v>1530</v>
@@ -84107,15 +84041,6 @@
       </c>
       <c r="CC1108" t="s">
         <v>1575</v>
-      </c>
-      <c r="CP1108" t="s">
-        <v>1588</v>
-      </c>
-      <c r="CQ1108" t="s">
-        <v>1589</v>
-      </c>
-      <c r="CR1108" t="s">
-        <v>1590</v>
       </c>
     </row>
     <row r="1109" spans="1:96">
@@ -84135,13 +84060,13 @@
         <v>1202</v>
       </c>
       <c r="F1109">
-        <v>2651</v>
+        <v>2550</v>
       </c>
       <c r="G1109">
-        <v>377100</v>
+        <v>649100</v>
       </c>
       <c r="H1109">
-        <v>-7.89</v>
+        <v>-5.55</v>
       </c>
       <c r="I1109">
         <v>2.33</v>
@@ -84151,24 +84076,6 @@
       </c>
       <c r="K1109" t="s">
         <v>1511</v>
-      </c>
-      <c r="W1109" t="s">
-        <v>1523</v>
-      </c>
-      <c r="AD1109" t="s">
-        <v>1530</v>
-      </c>
-      <c r="AF1109" t="s">
-        <v>1532</v>
-      </c>
-      <c r="AH1109" t="s">
-        <v>1533</v>
-      </c>
-      <c r="AJ1109" t="s">
-        <v>1535</v>
-      </c>
-      <c r="AK1109" t="s">
-        <v>1536</v>
       </c>
       <c r="CI1109" t="s">
         <v>1581</v>
@@ -84194,13 +84101,13 @@
         <v>1203</v>
       </c>
       <c r="F1110">
-        <v>876</v>
+        <v>878</v>
       </c>
       <c r="G1110">
-        <v>172600</v>
+        <v>484700</v>
       </c>
       <c r="H1110">
-        <v>-10.72</v>
+        <v>4.4</v>
       </c>
       <c r="I1110">
         <v>22.97</v>
@@ -84208,21 +84115,45 @@
       <c r="J1110">
         <v>-22.64</v>
       </c>
-      <c r="K1110" t="s">
-        <v>1511</v>
+      <c r="L1110" t="s">
+        <v>1512</v>
       </c>
       <c r="N1110" t="s">
         <v>1514</v>
       </c>
+      <c r="Q1110" t="s">
+        <v>1517</v>
+      </c>
+      <c r="Z1110" t="s">
+        <v>1526</v>
+      </c>
+      <c r="AB1110" t="s">
+        <v>1528</v>
+      </c>
       <c r="AD1110" t="s">
         <v>1530</v>
       </c>
+      <c r="AE1110" t="s">
+        <v>1531</v>
+      </c>
       <c r="AF1110" t="s">
         <v>1532</v>
       </c>
+      <c r="AK1110" t="s">
+        <v>1536</v>
+      </c>
       <c r="AL1110" t="s">
         <v>1537</v>
       </c>
+      <c r="AM1110" t="s">
+        <v>1538</v>
+      </c>
+      <c r="AN1110" t="s">
+        <v>1539</v>
+      </c>
+      <c r="AS1110" t="s">
+        <v>1543</v>
+      </c>
       <c r="AT1110" t="s">
         <v>1544</v>
       </c>
@@ -84246,6 +84177,12 @@
       </c>
       <c r="CP1110" t="s">
         <v>1588</v>
+      </c>
+      <c r="CQ1110" t="s">
+        <v>1589</v>
+      </c>
+      <c r="CR1110" t="s">
+        <v>1590</v>
       </c>
     </row>
     <row r="1111" spans="1:96">
@@ -84253,7 +84190,7 @@
         <v>1109</v>
       </c>
       <c r="B1111">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C1111">
         <v>2</v>
@@ -84265,13 +84202,13 @@
         <v>1204</v>
       </c>
       <c r="F1111">
-        <v>1225</v>
+        <v>1211</v>
       </c>
       <c r="G1111">
-        <v>1500</v>
+        <v>2300</v>
       </c>
       <c r="H1111">
-        <v>-3.42</v>
+        <v>-2.41</v>
       </c>
       <c r="I1111">
         <v>6.14</v>
@@ -84279,30 +84216,18 @@
       <c r="J1111">
         <v>2.35</v>
       </c>
-      <c r="K1111" t="s">
-        <v>1511</v>
-      </c>
-      <c r="R1111" t="s">
-        <v>1518</v>
-      </c>
-      <c r="AD1111" t="s">
-        <v>1530</v>
+      <c r="L1111" t="s">
+        <v>1512</v>
+      </c>
+      <c r="S1111" t="s">
+        <v>1519</v>
       </c>
       <c r="AF1111" t="s">
         <v>1532</v>
       </c>
-      <c r="AJ1111" t="s">
-        <v>1535</v>
-      </c>
       <c r="BJ1111" t="s">
         <v>1558</v>
       </c>
-      <c r="BO1111" t="s">
-        <v>1562</v>
-      </c>
-      <c r="BQ1111" t="s">
-        <v>1564</v>
-      </c>
       <c r="BR1111" t="s">
         <v>1565</v>
       </c>
@@ -84317,6 +84242,9 @@
       </c>
       <c r="CD1111" t="s">
         <v>1576</v>
+      </c>
+      <c r="CP1111" t="s">
+        <v>1588</v>
       </c>
     </row>
     <row r="1112" spans="1:96">
@@ -84336,13 +84264,13 @@
         <v>1205</v>
       </c>
       <c r="F1112">
-        <v>1566</v>
+        <v>1542</v>
       </c>
       <c r="G1112">
-        <v>85800</v>
+        <v>48300</v>
       </c>
       <c r="H1112">
-        <v>4.74</v>
+        <v>0.88</v>
       </c>
       <c r="I1112">
         <v>15.34</v>
@@ -84353,14 +84281,11 @@
       <c r="L1112" t="s">
         <v>1512</v>
       </c>
-      <c r="Q1112" t="s">
-        <v>1517</v>
-      </c>
-      <c r="Z1112" t="s">
-        <v>1526</v>
-      </c>
-      <c r="AB1112" t="s">
-        <v>1528</v>
+      <c r="S1112" t="s">
+        <v>1519</v>
+      </c>
+      <c r="X1112" t="s">
+        <v>1524</v>
       </c>
       <c r="AD1112" t="s">
         <v>1530</v>
@@ -84382,12 +84307,6 @@
       </c>
       <c r="CA1112" t="s">
         <v>1573</v>
-      </c>
-      <c r="CQ1112" t="s">
-        <v>1589</v>
-      </c>
-      <c r="CR1112" t="s">
-        <v>1590</v>
       </c>
     </row>
     <row r="1113" spans="1:96">
@@ -84407,13 +84326,13 @@
         <v>1206</v>
       </c>
       <c r="F1113">
-        <v>9640</v>
+        <v>9730</v>
       </c>
       <c r="G1113">
-        <v>11800</v>
+        <v>33300</v>
       </c>
       <c r="H1113">
-        <v>-8.56</v>
+        <v>-2.8</v>
       </c>
       <c r="I1113">
         <v>30.84</v>
@@ -84424,9 +84343,6 @@
       <c r="K1113" t="s">
         <v>1511</v>
       </c>
-      <c r="Z1113" t="s">
-        <v>1526</v>
-      </c>
       <c r="AD1113" t="s">
         <v>1530</v>
       </c>
@@ -84450,6 +84366,9 @@
       </c>
       <c r="CA1113" t="s">
         <v>1573</v>
+      </c>
+      <c r="CP1113" t="s">
+        <v>1588</v>
       </c>
     </row>
     <row r="1114" spans="1:96">
@@ -84457,7 +84376,7 @@
         <v>1112</v>
       </c>
       <c r="B1114">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C1114">
         <v>0</v>
@@ -84469,13 +84388,13 @@
         <v>1207</v>
       </c>
       <c r="F1114">
-        <v>1582</v>
+        <v>1578</v>
       </c>
       <c r="G1114">
-        <v>13300</v>
+        <v>9800</v>
       </c>
       <c r="H1114">
-        <v>-4.79</v>
+        <v>-5.74</v>
       </c>
       <c r="I1114">
         <v>3.99</v>
@@ -84483,21 +84402,15 @@
       <c r="J1114">
         <v>-2.62</v>
       </c>
-      <c r="K1114" t="s">
-        <v>1511</v>
-      </c>
-      <c r="AD1114" t="s">
-        <v>1530</v>
+      <c r="L1114" t="s">
+        <v>1512</v>
+      </c>
+      <c r="Q1114" t="s">
+        <v>1517</v>
       </c>
       <c r="AF1114" t="s">
         <v>1532</v>
       </c>
-      <c r="AH1114" t="s">
-        <v>1533</v>
-      </c>
-      <c r="AK1114" t="s">
-        <v>1536</v>
-      </c>
       <c r="AL1114" t="s">
         <v>1537</v>
       </c>
@@ -84525,18 +84438,9 @@
       <c r="BI1114" t="s">
         <v>1557</v>
       </c>
-      <c r="BJ1114" t="s">
-        <v>1558</v>
-      </c>
       <c r="BL1114" t="s">
         <v>1560</v>
       </c>
-      <c r="BN1114" t="s">
-        <v>1561</v>
-      </c>
-      <c r="BQ1114" t="s">
-        <v>1564</v>
-      </c>
       <c r="BR1114" t="s">
         <v>1565</v>
       </c>
@@ -84551,9 +84455,6 @@
       </c>
       <c r="CI1114" t="s">
         <v>1581</v>
-      </c>
-      <c r="CP1114" t="s">
-        <v>1588</v>
       </c>
     </row>
     <row r="1115" spans="1:96">
@@ -84573,13 +84474,13 @@
         <v>1208</v>
       </c>
       <c r="F1115">
-        <v>2133</v>
+        <v>2125</v>
       </c>
       <c r="G1115">
-        <v>340100</v>
+        <v>393700</v>
       </c>
       <c r="H1115">
-        <v>0.78</v>
+        <v>1.53</v>
       </c>
       <c r="I1115">
         <v>13.45</v>
@@ -84587,15 +84488,24 @@
       <c r="J1115">
         <v>49</v>
       </c>
-      <c r="K1115" t="s">
-        <v>1511</v>
+      <c r="L1115" t="s">
+        <v>1512</v>
       </c>
       <c r="Z1115" t="s">
         <v>1526</v>
       </c>
+      <c r="AA1115" t="s">
+        <v>1527</v>
+      </c>
       <c r="AD1115" t="s">
         <v>1530</v>
       </c>
+      <c r="AI1115" t="s">
+        <v>1534</v>
+      </c>
+      <c r="AK1115" t="s">
+        <v>1536</v>
+      </c>
       <c r="AL1115" t="s">
         <v>1537</v>
       </c>
@@ -84613,9 +84523,6 @@
       </c>
       <c r="BL1115" t="s">
         <v>1560</v>
-      </c>
-      <c r="BP1115" t="s">
-        <v>1563</v>
       </c>
       <c r="BQ1115" t="s">
         <v>1564</v>
@@ -84632,7 +84539,7 @@
         <v>0</v>
       </c>
       <c r="C1116">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D1116">
         <v>7817</v>
@@ -84641,13 +84548,13 @@
         <v>1209</v>
       </c>
       <c r="F1116">
-        <v>2491</v>
+        <v>2514</v>
       </c>
       <c r="G1116">
-        <v>80000</v>
+        <v>56000</v>
       </c>
       <c r="H1116">
-        <v>9.31</v>
+        <v>-0.46</v>
       </c>
       <c r="I1116">
         <v>3.24</v>
@@ -84655,27 +84562,21 @@
       <c r="J1116">
         <v>5.39</v>
       </c>
-      <c r="K1116" t="s">
-        <v>1511</v>
+      <c r="L1116" t="s">
+        <v>1512</v>
+      </c>
+      <c r="P1116" t="s">
+        <v>1516</v>
       </c>
       <c r="Z1116" t="s">
         <v>1526</v>
       </c>
+      <c r="AA1116" t="s">
+        <v>1527</v>
+      </c>
       <c r="AD1116" t="s">
         <v>1530</v>
       </c>
-      <c r="AE1116" t="s">
-        <v>1531</v>
-      </c>
-      <c r="AF1116" t="s">
-        <v>1532</v>
-      </c>
-      <c r="AJ1116" t="s">
-        <v>1535</v>
-      </c>
-      <c r="AK1116" t="s">
-        <v>1536</v>
-      </c>
       <c r="AL1116" t="s">
         <v>1537</v>
       </c>
@@ -84688,17 +84589,38 @@
       <c r="BJ1116" t="s">
         <v>1558</v>
       </c>
+      <c r="BR1116" t="s">
+        <v>1565</v>
+      </c>
+      <c r="BS1116" t="s">
+        <v>1566</v>
+      </c>
+      <c r="BT1116" t="s">
+        <v>1567</v>
+      </c>
+      <c r="BV1116" t="s">
+        <v>1568</v>
+      </c>
+      <c r="BX1116" t="s">
+        <v>1570</v>
+      </c>
+      <c r="BY1116" t="s">
+        <v>1571</v>
+      </c>
+      <c r="BZ1116" t="s">
+        <v>1572</v>
+      </c>
+      <c r="CB1116" t="s">
+        <v>1574</v>
+      </c>
+      <c r="CE1116" t="s">
+        <v>1577</v>
+      </c>
       <c r="CJ1116" t="s">
         <v>1582</v>
       </c>
-      <c r="CP1116" t="s">
-        <v>1588</v>
-      </c>
-      <c r="CQ1116" t="s">
-        <v>1589</v>
-      </c>
-      <c r="CR1116" t="s">
-        <v>1590</v>
+      <c r="CK1116" t="s">
+        <v>1583</v>
       </c>
     </row>
     <row r="1117" spans="1:96">
@@ -84718,13 +84640,13 @@
         <v>1210</v>
       </c>
       <c r="F1117">
-        <v>1776</v>
+        <v>1778</v>
       </c>
       <c r="G1117">
-        <v>134200</v>
+        <v>109600</v>
       </c>
       <c r="H1117">
-        <v>0.12</v>
+        <v>-1.57</v>
       </c>
       <c r="I1117">
         <v>22.04</v>
@@ -84732,17 +84654,26 @@
       <c r="J1117">
         <v>41.06</v>
       </c>
-      <c r="K1117" t="s">
-        <v>1511</v>
+      <c r="L1117" t="s">
+        <v>1512</v>
+      </c>
+      <c r="P1117" t="s">
+        <v>1516</v>
+      </c>
+      <c r="Z1117" t="s">
+        <v>1526</v>
       </c>
       <c r="AD1117" t="s">
         <v>1530</v>
       </c>
-      <c r="AF1117" t="s">
-        <v>1532</v>
-      </c>
-      <c r="AJ1117" t="s">
-        <v>1535</v>
+      <c r="AH1117" t="s">
+        <v>1533</v>
+      </c>
+      <c r="AI1117" t="s">
+        <v>1534</v>
+      </c>
+      <c r="AK1117" t="s">
+        <v>1536</v>
       </c>
       <c r="AL1117" t="s">
         <v>1537</v>
@@ -84773,9 +84704,6 @@
       </c>
       <c r="CD1117" t="s">
         <v>1576</v>
-      </c>
-      <c r="CP1117" t="s">
-        <v>1588</v>
       </c>
     </row>
     <row r="1118" spans="1:96">
@@ -84795,13 +84723,13 @@
         <v>1211</v>
       </c>
       <c r="F1118">
-        <v>3215</v>
+        <v>3125</v>
       </c>
       <c r="G1118">
-        <v>27200</v>
+        <v>58300</v>
       </c>
       <c r="H1118">
-        <v>-2.02</v>
+        <v>0.9</v>
       </c>
       <c r="I1118">
         <v>39.83</v>
@@ -84809,38 +84737,11 @@
       <c r="J1118">
         <v>84.34999999999999</v>
       </c>
-      <c r="K1118" t="s">
-        <v>1511</v>
-      </c>
-      <c r="R1118" t="s">
-        <v>1518</v>
-      </c>
-      <c r="X1118" t="s">
-        <v>1524</v>
-      </c>
-      <c r="Y1118" t="s">
-        <v>1525</v>
-      </c>
-      <c r="BD1118" t="s">
-        <v>1553</v>
-      </c>
-      <c r="BR1118" t="s">
-        <v>1565</v>
-      </c>
-      <c r="BT1118" t="s">
-        <v>1567</v>
+      <c r="L1118" t="s">
+        <v>1512</v>
       </c>
       <c r="CA1118" t="s">
         <v>1573</v>
-      </c>
-      <c r="CH1118" t="s">
-        <v>1580</v>
-      </c>
-      <c r="CJ1118" t="s">
-        <v>1582</v>
-      </c>
-      <c r="CM1118" t="s">
-        <v>1585</v>
       </c>
       <c r="CP1118" t="s">
         <v>1588</v>
@@ -84851,7 +84752,7 @@
         <v>1117</v>
       </c>
       <c r="B1119">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C1119">
         <v>0</v>
@@ -84863,13 +84764,13 @@
         <v>1212</v>
       </c>
       <c r="F1119">
-        <v>9080</v>
+        <v>9140</v>
       </c>
       <c r="G1119">
-        <v>84800</v>
+        <v>28400</v>
       </c>
       <c r="H1119">
-        <v>8.93</v>
+        <v>-4.48</v>
       </c>
       <c r="I1119">
         <v>3.34</v>
@@ -84880,11 +84781,8 @@
       <c r="L1119" t="s">
         <v>1512</v>
       </c>
-      <c r="V1119" t="s">
-        <v>1522</v>
-      </c>
-      <c r="Z1119" t="s">
-        <v>1526</v>
+      <c r="Q1119" t="s">
+        <v>1517</v>
       </c>
       <c r="AF1119" t="s">
         <v>1532</v>
@@ -84901,29 +84799,29 @@
       <c r="AV1119" t="s">
         <v>1546</v>
       </c>
-      <c r="AX1119" t="s">
-        <v>1547</v>
-      </c>
       <c r="BA1119" t="s">
         <v>1550</v>
       </c>
-      <c r="BD1119" t="s">
-        <v>1553</v>
+      <c r="BR1119" t="s">
+        <v>1565</v>
+      </c>
+      <c r="BS1119" t="s">
+        <v>1566</v>
       </c>
       <c r="BT1119" t="s">
         <v>1567</v>
       </c>
+      <c r="BV1119" t="s">
+        <v>1568</v>
+      </c>
+      <c r="BX1119" t="s">
+        <v>1570</v>
+      </c>
+      <c r="BY1119" t="s">
+        <v>1571</v>
+      </c>
       <c r="CA1119" t="s">
         <v>1573</v>
-      </c>
-      <c r="CP1119" t="s">
-        <v>1588</v>
-      </c>
-      <c r="CQ1119" t="s">
-        <v>1589</v>
-      </c>
-      <c r="CR1119" t="s">
-        <v>1590</v>
       </c>
     </row>
     <row r="1120" spans="1:96">
@@ -84943,13 +84841,13 @@
         <v>1213</v>
       </c>
       <c r="F1120">
-        <v>3245</v>
+        <v>3261</v>
       </c>
       <c r="G1120">
-        <v>3157900</v>
+        <v>2122000</v>
       </c>
       <c r="H1120">
-        <v>8.65</v>
+        <v>3.52</v>
       </c>
       <c r="I1120">
         <v>2.27</v>
@@ -84960,6 +84858,9 @@
       <c r="K1120" t="s">
         <v>1511</v>
       </c>
+      <c r="Z1120" t="s">
+        <v>1526</v>
+      </c>
       <c r="AD1120" t="s">
         <v>1530</v>
       </c>
@@ -84968,9 +84869,6 @@
       </c>
       <c r="AT1120" t="s">
         <v>1544</v>
-      </c>
-      <c r="CP1120" t="s">
-        <v>1588</v>
       </c>
       <c r="CQ1120" t="s">
         <v>1589</v>
@@ -84984,7 +84882,7 @@
         <v>1119</v>
       </c>
       <c r="B1121">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C1121">
         <v>0</v>
@@ -84996,13 +84894,13 @@
         <v>1214</v>
       </c>
       <c r="F1121">
-        <v>2546</v>
+        <v>2621</v>
       </c>
       <c r="G1121">
-        <v>161200</v>
+        <v>339300</v>
       </c>
       <c r="H1121">
-        <v>-0.47</v>
+        <v>12.02</v>
       </c>
       <c r="I1121">
         <v>12.74</v>
@@ -85016,11 +84914,62 @@
       <c r="Z1121" t="s">
         <v>1526</v>
       </c>
-      <c r="AF1121" t="s">
-        <v>1532</v>
+      <c r="AA1121" t="s">
+        <v>1527</v>
+      </c>
+      <c r="AD1121" t="s">
+        <v>1530</v>
+      </c>
+      <c r="AI1121" t="s">
+        <v>1534</v>
+      </c>
+      <c r="AJ1121" t="s">
+        <v>1535</v>
+      </c>
+      <c r="AK1121" t="s">
+        <v>1536</v>
+      </c>
+      <c r="AL1121" t="s">
+        <v>1537</v>
+      </c>
+      <c r="AN1121" t="s">
+        <v>1539</v>
+      </c>
+      <c r="AP1121" t="s">
+        <v>1540</v>
+      </c>
+      <c r="AR1121" t="s">
+        <v>1542</v>
+      </c>
+      <c r="AS1121" t="s">
+        <v>1543</v>
+      </c>
+      <c r="BJ1121" t="s">
+        <v>1558</v>
+      </c>
+      <c r="BL1121" t="s">
+        <v>1560</v>
+      </c>
+      <c r="BN1121" t="s">
+        <v>1561</v>
+      </c>
+      <c r="BP1121" t="s">
+        <v>1563</v>
+      </c>
+      <c r="BQ1121" t="s">
+        <v>1564</v>
       </c>
       <c r="BZ1121" t="s">
         <v>1572</v>
+      </c>
+      <c r="CP1121" t="s">
+        <v>1588</v>
+      </c>
+      <c r="CQ1121" t="s">
+        <v>1589</v>
+      </c>
+      <c r="CR1121" t="s">
+        <v>1590</v>
       </c>
     </row>
     <row r="1122" spans="1:96">
@@ -85040,13 +84989,13 @@
         <v>1215</v>
       </c>
       <c r="F1122">
-        <v>679</v>
+        <v>675</v>
       </c>
       <c r="G1122">
-        <v>186200</v>
+        <v>122300</v>
       </c>
       <c r="H1122">
-        <v>5.5</v>
+        <v>0.71</v>
       </c>
       <c r="I1122">
         <v>-6.87</v>
@@ -85054,21 +85003,21 @@
       <c r="J1122">
         <v>61.07</v>
       </c>
-      <c r="K1122" t="s">
-        <v>1511</v>
-      </c>
-      <c r="AD1122" t="s">
-        <v>1530</v>
+      <c r="L1122" t="s">
+        <v>1512</v>
+      </c>
+      <c r="S1122" t="s">
+        <v>1519</v>
+      </c>
+      <c r="V1122" t="s">
+        <v>1522</v>
+      </c>
+      <c r="Z1122" t="s">
+        <v>1526</v>
       </c>
       <c r="AF1122" t="s">
         <v>1532</v>
       </c>
-      <c r="AH1122" t="s">
-        <v>1533</v>
-      </c>
-      <c r="AK1122" t="s">
-        <v>1536</v>
-      </c>
       <c r="AL1122" t="s">
         <v>1537</v>
       </c>
@@ -85078,6 +85027,9 @@
       <c r="AN1122" t="s">
         <v>1539</v>
       </c>
+      <c r="AP1122" t="s">
+        <v>1540</v>
+      </c>
       <c r="AS1122" t="s">
         <v>1543</v>
       </c>
@@ -85092,15 +85044,6 @@
       </c>
       <c r="CA1122" t="s">
         <v>1573</v>
-      </c>
-      <c r="CP1122" t="s">
-        <v>1588</v>
-      </c>
-      <c r="CQ1122" t="s">
-        <v>1589</v>
-      </c>
-      <c r="CR1122" t="s">
-        <v>1590</v>
       </c>
     </row>
     <row r="1123" spans="1:96">
@@ -85120,13 +85063,13 @@
         <v>1216</v>
       </c>
       <c r="F1123">
-        <v>1550</v>
+        <v>1563</v>
       </c>
       <c r="G1123">
-        <v>544300</v>
+        <v>236500</v>
       </c>
       <c r="H1123">
-        <v>132.33</v>
+        <v>31.73</v>
       </c>
       <c r="I1123">
         <v>4.64</v>
@@ -85137,65 +85080,35 @@
       <c r="K1123" t="s">
         <v>1511</v>
       </c>
-      <c r="O1123" t="s">
-        <v>1515</v>
-      </c>
-      <c r="T1123" t="s">
-        <v>1520</v>
-      </c>
-      <c r="W1123" t="s">
-        <v>1523</v>
-      </c>
-      <c r="X1123" t="s">
-        <v>1524</v>
-      </c>
-      <c r="Y1123" t="s">
-        <v>1525</v>
-      </c>
       <c r="AD1123" t="s">
         <v>1530</v>
       </c>
+      <c r="AE1123" t="s">
+        <v>1531</v>
+      </c>
       <c r="AF1123" t="s">
         <v>1532</v>
       </c>
-      <c r="AJ1123" t="s">
-        <v>1535</v>
+      <c r="AK1123" t="s">
+        <v>1536</v>
       </c>
       <c r="AL1123" t="s">
         <v>1537</v>
       </c>
-      <c r="AN1123" t="s">
-        <v>1539</v>
-      </c>
-      <c r="AR1123" t="s">
-        <v>1542</v>
+      <c r="AQ1123" t="s">
+        <v>1541</v>
+      </c>
+      <c r="AS1123" t="s">
+        <v>1543</v>
       </c>
       <c r="AT1123" t="s">
         <v>1544</v>
       </c>
-      <c r="AV1123" t="s">
-        <v>1546</v>
-      </c>
-      <c r="AZ1123" t="s">
-        <v>1549</v>
-      </c>
       <c r="BB1123" t="s">
         <v>1551</v>
       </c>
-      <c r="BD1123" t="s">
-        <v>1553</v>
-      </c>
-      <c r="BH1123" t="s">
-        <v>1556</v>
-      </c>
-      <c r="CI1123" t="s">
-        <v>1581</v>
-      </c>
       <c r="CL1123" t="s">
         <v>1584</v>
-      </c>
-      <c r="CP1123" t="s">
-        <v>1588</v>
       </c>
       <c r="CQ1123" t="s">
         <v>1589</v>
@@ -85209,7 +85122,7 @@
         <v>1122</v>
       </c>
       <c r="B1124">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C1124">
         <v>0</v>
@@ -85221,13 +85134,13 @@
         <v>1217</v>
       </c>
       <c r="F1124">
-        <v>1563</v>
+        <v>1574</v>
       </c>
       <c r="G1124">
-        <v>200000</v>
+        <v>56600</v>
       </c>
       <c r="H1124">
-        <v>4.35</v>
+        <v>-3.89</v>
       </c>
       <c r="I1124">
         <v>4.06</v>
@@ -85235,14 +85148,26 @@
       <c r="J1124">
         <v>-16.29</v>
       </c>
-      <c r="L1124" t="s">
-        <v>1512</v>
+      <c r="K1124" t="s">
+        <v>1511</v>
+      </c>
+      <c r="O1124" t="s">
+        <v>1515</v>
+      </c>
+      <c r="Q1124" t="s">
+        <v>1517</v>
       </c>
       <c r="AD1124" t="s">
         <v>1530</v>
       </c>
-      <c r="AJ1124" t="s">
-        <v>1535</v>
+      <c r="AE1124" t="s">
+        <v>1531</v>
+      </c>
+      <c r="AF1124" t="s">
+        <v>1532</v>
+      </c>
+      <c r="AK1124" t="s">
+        <v>1536</v>
       </c>
       <c r="AL1124" t="s">
         <v>1537</v>
@@ -85262,23 +85187,11 @@
       <c r="BL1124" t="s">
         <v>1560</v>
       </c>
-      <c r="BN1124" t="s">
-        <v>1561</v>
-      </c>
-      <c r="BP1124" t="s">
-        <v>1563</v>
-      </c>
       <c r="BQ1124" t="s">
         <v>1564</v>
       </c>
-      <c r="CP1124" t="s">
-        <v>1588</v>
-      </c>
-      <c r="CQ1124" t="s">
-        <v>1589</v>
-      </c>
-      <c r="CR1124" t="s">
-        <v>1590</v>
+      <c r="CI1124" t="s">
+        <v>1581</v>
       </c>
     </row>
     <row r="1125" spans="1:96">
@@ -85298,13 +85211,13 @@
         <v>1218</v>
       </c>
       <c r="F1125">
-        <v>1621</v>
+        <v>1626</v>
       </c>
       <c r="G1125">
-        <v>672200</v>
+        <v>503600</v>
       </c>
       <c r="H1125">
-        <v>5.87</v>
+        <v>2.22</v>
       </c>
       <c r="I1125">
         <v>4</v>
@@ -85312,12 +85225,15 @@
       <c r="J1125">
         <v>31.15</v>
       </c>
-      <c r="K1125" t="s">
-        <v>1511</v>
+      <c r="L1125" t="s">
+        <v>1512</v>
       </c>
       <c r="N1125" t="s">
         <v>1514</v>
       </c>
+      <c r="Z1125" t="s">
+        <v>1526</v>
+      </c>
       <c r="AD1125" t="s">
         <v>1530</v>
       </c>
@@ -85353,9 +85269,6 @@
       </c>
       <c r="CQ1125" t="s">
         <v>1589</v>
-      </c>
-      <c r="CR1125" t="s">
-        <v>1590</v>
       </c>
     </row>
     <row r="1126" spans="1:96">
@@ -85363,10 +85276,10 @@
         <v>1124</v>
       </c>
       <c r="B1126">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C1126">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D1126">
         <v>7868</v>
@@ -85375,13 +85288,13 @@
         <v>1219</v>
       </c>
       <c r="F1126">
-        <v>2600</v>
+        <v>2551</v>
       </c>
       <c r="G1126">
-        <v>208900</v>
+        <v>507300</v>
       </c>
       <c r="H1126">
-        <v>-4.87</v>
+        <v>11.67</v>
       </c>
       <c r="I1126">
         <v>0.91</v>
@@ -85395,12 +85308,36 @@
       <c r="O1126" t="s">
         <v>1515</v>
       </c>
+      <c r="P1126" t="s">
+        <v>1516</v>
+      </c>
+      <c r="U1126" t="s">
+        <v>1521</v>
+      </c>
+      <c r="X1126" t="s">
+        <v>1524</v>
+      </c>
+      <c r="AF1126" t="s">
+        <v>1532</v>
+      </c>
+      <c r="AN1126" t="s">
+        <v>1539</v>
+      </c>
       <c r="AV1126" t="s">
         <v>1546</v>
       </c>
       <c r="BB1126" t="s">
         <v>1551</v>
       </c>
+      <c r="BC1126" t="s">
+        <v>1552</v>
+      </c>
+      <c r="BD1126" t="s">
+        <v>1553</v>
+      </c>
+      <c r="BI1126" t="s">
+        <v>1557</v>
+      </c>
       <c r="BJ1126" t="s">
         <v>1558</v>
       </c>
@@ -85413,9 +85350,6 @@
       <c r="CA1126" t="s">
         <v>1573</v>
       </c>
-      <c r="CB1126" t="s">
-        <v>1574</v>
-      </c>
       <c r="CC1126" t="s">
         <v>1575</v>
       </c>
@@ -85424,6 +85358,12 @@
       </c>
       <c r="CP1126" t="s">
         <v>1588</v>
+      </c>
+      <c r="CQ1126" t="s">
+        <v>1589</v>
+      </c>
+      <c r="CR1126" t="s">
+        <v>1590</v>
       </c>
     </row>
     <row r="1127" spans="1:96">
@@ -85431,7 +85371,7 @@
         <v>1125</v>
       </c>
       <c r="B1127">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C1127">
         <v>3</v>
@@ -85443,13 +85383,13 @@
         <v>1220</v>
       </c>
       <c r="F1127">
-        <v>1495</v>
+        <v>1452</v>
       </c>
       <c r="G1127">
-        <v>726900</v>
+        <v>480700</v>
       </c>
       <c r="H1127">
-        <v>34.29</v>
+        <v>19.04</v>
       </c>
       <c r="I1127">
         <v>5.77</v>
@@ -85463,21 +85403,21 @@
       <c r="O1127" t="s">
         <v>1515</v>
       </c>
-      <c r="S1127" t="s">
-        <v>1519</v>
-      </c>
       <c r="X1127" t="s">
         <v>1524</v>
       </c>
       <c r="Y1127" t="s">
         <v>1525</v>
       </c>
-      <c r="AV1127" t="s">
-        <v>1546</v>
-      </c>
       <c r="BB1127" t="s">
         <v>1551</v>
       </c>
+      <c r="BG1127" t="s">
+        <v>1555</v>
+      </c>
+      <c r="BI1127" t="s">
+        <v>1557</v>
+      </c>
       <c r="BJ1127" t="s">
         <v>1558</v>
       </c>
@@ -85498,12 +85438,6 @@
       </c>
       <c r="CD1127" t="s">
         <v>1576</v>
-      </c>
-      <c r="CL1127" t="s">
-        <v>1584</v>
-      </c>
-      <c r="CP1127" t="s">
-        <v>1588</v>
       </c>
       <c r="CQ1127" t="s">
         <v>1589</v>
@@ -85517,7 +85451,7 @@
         <v>1126</v>
       </c>
       <c r="B1128">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C1128">
         <v>3</v>
@@ -85529,13 +85463,13 @@
         <v>1221</v>
       </c>
       <c r="F1128">
-        <v>2858</v>
+        <v>2929</v>
       </c>
       <c r="G1128">
-        <v>1050800</v>
+        <v>2078100</v>
       </c>
       <c r="H1128">
-        <v>0.22</v>
+        <v>10.55</v>
       </c>
       <c r="I1128">
         <v>-0.09</v>
@@ -85543,21 +85477,54 @@
       <c r="J1128">
         <v>0.52</v>
       </c>
-      <c r="L1128" t="s">
-        <v>1512</v>
+      <c r="K1128" t="s">
+        <v>1511</v>
       </c>
       <c r="Q1128" t="s">
         <v>1517</v>
       </c>
+      <c r="T1128" t="s">
+        <v>1520</v>
+      </c>
+      <c r="W1128" t="s">
+        <v>1523</v>
+      </c>
+      <c r="AD1128" t="s">
+        <v>1530</v>
+      </c>
+      <c r="AE1128" t="s">
+        <v>1531</v>
+      </c>
       <c r="AF1128" t="s">
         <v>1532</v>
       </c>
+      <c r="AJ1128" t="s">
+        <v>1535</v>
+      </c>
+      <c r="AK1128" t="s">
+        <v>1536</v>
+      </c>
       <c r="AL1128" t="s">
         <v>1537</v>
       </c>
+      <c r="AM1128" t="s">
+        <v>1538</v>
+      </c>
+      <c r="AN1128" t="s">
+        <v>1539</v>
+      </c>
+      <c r="AS1128" t="s">
+        <v>1543</v>
+      </c>
       <c r="AT1128" t="s">
         <v>1544</v>
       </c>
+      <c r="AY1128" t="s">
+        <v>1548</v>
+      </c>
+      <c r="BA1128" t="s">
+        <v>1550</v>
+      </c>
       <c r="BB1128" t="s">
         <v>1551</v>
       </c>
@@ -85584,6 +85551,12 @@
       </c>
       <c r="CP1128" t="s">
         <v>1588</v>
+      </c>
+      <c r="CQ1128" t="s">
+        <v>1589</v>
+      </c>
+      <c r="CR1128" t="s">
+        <v>1590</v>
       </c>
     </row>
     <row r="1129" spans="1:96">
@@ -85591,7 +85564,7 @@
         <v>1127</v>
       </c>
       <c r="B1129">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C1129">
         <v>3</v>
@@ -85603,13 +85576,13 @@
         <v>1222</v>
       </c>
       <c r="F1129">
-        <v>3965</v>
+        <v>3915</v>
       </c>
       <c r="G1129">
-        <v>981900</v>
+        <v>1591500</v>
       </c>
       <c r="H1129">
-        <v>-0.68</v>
+        <v>3.65</v>
       </c>
       <c r="I1129">
         <v>-0.17</v>
@@ -85617,11 +85590,11 @@
       <c r="J1129">
         <v>-19.33</v>
       </c>
-      <c r="K1129" t="s">
-        <v>1511</v>
-      </c>
-      <c r="AD1129" t="s">
-        <v>1530</v>
+      <c r="L1129" t="s">
+        <v>1512</v>
+      </c>
+      <c r="Q1129" t="s">
+        <v>1517</v>
       </c>
       <c r="AF1129" t="s">
         <v>1532</v>
@@ -85629,9 +85602,24 @@
       <c r="AL1129" t="s">
         <v>1537</v>
       </c>
+      <c r="AM1129" t="s">
+        <v>1538</v>
+      </c>
+      <c r="AN1129" t="s">
+        <v>1539</v>
+      </c>
+      <c r="AS1129" t="s">
+        <v>1543</v>
+      </c>
       <c r="AT1129" t="s">
         <v>1544</v>
       </c>
+      <c r="AY1129" t="s">
+        <v>1548</v>
+      </c>
+      <c r="BA1129" t="s">
+        <v>1550</v>
+      </c>
       <c r="BB1129" t="s">
         <v>1551</v>
       </c>
@@ -85658,6 +85646,12 @@
       </c>
       <c r="CP1129" t="s">
         <v>1588</v>
+      </c>
+      <c r="CQ1129" t="s">
+        <v>1589</v>
+      </c>
+      <c r="CR1129" t="s">
+        <v>1590</v>
       </c>
     </row>
     <row r="1130" spans="1:96">
